--- a/biology/Neurosciences/Perception_du_temps/Perception_du_temps.xlsx
+++ b/biology/Neurosciences/Perception_du_temps/Perception_du_temps.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La perception du temps désigne la perception subjective que l'on a de l'écoulement du temps.
 Si nous possédons des yeux pour voir, des oreilles pour entendre et un nez pour sentir, nous n'avons pas de récepteurs sensoriels dédiés à la perception du temps. Or nous semblons pourtant capables de percevoir l'écoulement du temps. L'étude de la perception du temps se confronte donc à ce qui peut sembler un paradoxe renvoyant à la nature même du temps où se rencontrent les expériences psychologiques, les réflexions philosophiques et les mécanismes fondamentaux du cerveau. 
@@ -488,7 +500,7 @@
 la perception des durées ;
 la perception et la production de rythmes ;
 la perception de l'ordre temporel (temporalité, non-synchronicité) et de la simultanéité.
-La question reste posée de savoir si ces différents domaines de la perception temporelle procèdent des mêmes mécanismes ou non, en particulier d'autres distinctions ont été introduites sur la base de l'échelle de temps considérée. Ainsi selon le psychologue français Paul Fraisse[1], il convient de distinguer la perception temporelle (pour des durées relativement brèves jusqu'à quelques secondes) de l'estimation temporelle qui désigne notre capacité à appréhender des durées longues (supérieures à plusieurs secondes jusqu'à des heures ou davantage).
+La question reste posée de savoir si ces différents domaines de la perception temporelle procèdent des mêmes mécanismes ou non, en particulier d'autres distinctions ont été introduites sur la base de l'échelle de temps considérée. Ainsi selon le psychologue français Paul Fraisse, il convient de distinguer la perception temporelle (pour des durées relativement brèves jusqu'à quelques secondes) de l'estimation temporelle qui désigne notre capacité à appréhender des durées longues (supérieures à plusieurs secondes jusqu'à des heures ou davantage).
 </t>
         </is>
       </c>
@@ -517,7 +529,9 @@
           <t>Études expérimentales de la perception du temps</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'étude scientifique de la perception du temps remonte aux travaux du psychologue allemand Johann Czermak qui en 1857, publie une série de résultats sur ce qu'il appelle le "sens du temps" (Zeitsinn). Au moyen des méthodes de la psychophysique naissante, il entreprend de mesurer : 
 le plus petit intervalle de temps perceptible dans les différentes modalités sensorielles (vision, audition et toucher)
@@ -557,12 +571,49 @@
           <t>Mécanismes physiologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>On peut distinguer plusieurs mécanismes de perception du temps, selon l'échelle à laquelle on se place :
-Modèles d'horloge interne
-Jusqu'à présent plusieurs hypothèses s'affrontent sans pour autant être contradictoires.
-d'une part le modèle dit de pacemaker-accumulateur proposé en 1984 par Gibbon, Church et Meck[2]. Inspiré du mouvement cognitiviste, ce modèle postule l'existence d'un pacemaker qui délivre des impulsions de manière régulière. Ces impulsions sont "stockées" dans un accumulateur. Lorsqu'il s'agit par la suite d'effectuer un jugement temporel, comparer la durée de deux stimuli par exemple, l'accumulateur communique le nombre d'impulsions comptabilisées lors de la première durée dans ce qui est appelé une "mémoire de référence". Lors de la seconde durée, le contenu de l'accumulateur est transféré en mémoire de travail et est comparé à la mémoire de référence. En fonction de la différence relative, le sujet testé peut répondre (avec une certaine erreur) si la première durée est plus longue ou plus courte que la seconde. Dans les années qui ont suivi la présentation de ce modèles, de nombreuses tentatives furent menées pour assigner des bases neurobiologiques à ces différents opérateurs intervenant dans le modèle de pacemaker-accumulateur. Dans les versions les plus courantes de ce modèle, il existerait ainsi des zones cérébrales spécialisées dans le traitement de l'information temporelle, indépendamment de la modalité sensorielle du stimulus par exemple. Meck a ainsi suggéré que le système des ganglions de la base pouvaient jouer le rôle de pacemaker-accumulateur, tandis que d'autres comme Richard Ivry défendait plutôt l'idée que le cervelet (en particulier le vermis) était central dans la perception temporelle.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut distinguer plusieurs mécanismes de perception du temps, selon l'échelle à laquelle on se place :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Perception_du_temps</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Perception_du_temps</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Mécanismes physiologiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Modèles d'horloge interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jusqu'à présent plusieurs hypothèses s'affrontent sans pour autant être contradictoires.
+d'une part le modèle dit de pacemaker-accumulateur proposé en 1984 par Gibbon, Church et Meck. Inspiré du mouvement cognitiviste, ce modèle postule l'existence d'un pacemaker qui délivre des impulsions de manière régulière. Ces impulsions sont "stockées" dans un accumulateur. Lorsqu'il s'agit par la suite d'effectuer un jugement temporel, comparer la durée de deux stimuli par exemple, l'accumulateur communique le nombre d'impulsions comptabilisées lors de la première durée dans ce qui est appelé une "mémoire de référence". Lors de la seconde durée, le contenu de l'accumulateur est transféré en mémoire de travail et est comparé à la mémoire de référence. En fonction de la différence relative, le sujet testé peut répondre (avec une certaine erreur) si la première durée est plus longue ou plus courte que la seconde. Dans les années qui ont suivi la présentation de ce modèles, de nombreuses tentatives furent menées pour assigner des bases neurobiologiques à ces différents opérateurs intervenant dans le modèle de pacemaker-accumulateur. Dans les versions les plus courantes de ce modèle, il existerait ainsi des zones cérébrales spécialisées dans le traitement de l'information temporelle, indépendamment de la modalité sensorielle du stimulus par exemple. Meck a ainsi suggéré que le système des ganglions de la base pouvaient jouer le rôle de pacemaker-accumulateur, tandis que d'autres comme Richard Ivry défendait plutôt l'idée que le cervelet (en particulier le vermis) était central dans la perception temporelle.
 d'autre part le modèle de l'encodage spatial du temps, tenant compte de la dynamique des réseaux neuronaux. Le principe est le suivant : lorsque l'on perçoit un stimulus, il va y avoir activation d'un certain nombre de neurones au sein d'un réseau. On peut voir le réseau de neurones comme une grille. Ainsi l'information temporelle est encodée par le nombre et la position des neurones activés. Des neurones "extérieurs" peuvent décoder cette information grâce à un renforcement des synapses spécifiques des neurones détectés. Pour qu'un tel modèle soit possible, il faut cependant qu'un stimulus déclenche toujours la même cascade d'évènements, ce qui semble être le cas d'après des études de modélisation informatique.
 d'autres hypothèses sont également prises en compte, incluant des "neurones oscillateurs" ou des différences dans l'activation des neurones.</t>
         </is>
